--- a/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:56:04+00:00</t>
+    <t>2025-09-22T15:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:02:16+00:00</t>
+    <t>2025-09-22T15:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:17:20+00:00</t>
+    <t>2025-09-23T07:36:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T07:36:32+00:00</t>
+    <t>2025-09-23T07:37:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T07:37:47+00:00</t>
+    <t>2025-09-23T07:40:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T07:40:32+00:00</t>
+    <t>2025-09-23T07:47:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T07:47:43+00:00</t>
+    <t>2025-09-23T07:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T07:58:18+00:00</t>
+    <t>2025-09-23T13:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:20:55+00:00</t>
+    <t>2025-09-23T13:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:42:36+00:00</t>
+    <t>2025-09-23T13:47:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -329,6 +329,16 @@
   </si>
   <si>
     <t>Structure de la posologie par séquences de prise.</t>
+  </si>
+  <si>
+    <t>fr-ligne-prescription.quantitePrescrite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Quantité totale de traitement prescrite, indépendamment des séquences</t>
   </si>
 </sst>
 </file>
@@ -633,7 +643,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1789,6 +1799,106 @@
         <v>73</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:47:27+00:00</t>
+    <t>2025-09-23T14:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -338,7 +338,7 @@
 </t>
   </si>
   <si>
-    <t>Quantité totale de traitement prescrite, indépendamment des séquences</t>
+    <t>Quantité totale de traitement prescrite, indépendamment des séquences. Cela permet d'aider la dispensation dans le cas d'une unité non convertible (exemple : crème avec une posologie en "application")</t>
   </si>
 </sst>
 </file>
